--- a/1_PDF_Manual/instruction_translation.xlsx
+++ b/1_PDF_Manual/instruction_translation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\chemodanov_dn\3_Insctuctions_repo\Zeon_bot_manual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\chemodanov_dn\3_Insctuctions_repo\Zeon_bot_manual\1_PDF_Manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974BF8EE-250D-4196-B759-E5D1A910A0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BD67AC-7470-4066-A4ED-F8B8320979A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="865">
   <si>
     <t>ID</t>
   </si>
@@ -1229,10 +1229,6 @@
   </si>
   <si>
     <t>Логгер это сервис в который приходят уведомления о различных событиях случившихся в процессе работы бота. Например нападение на базу, скриншоты сбора ресурсов и т.д.</t>
-  </si>
-  <si>
-    <t>### 4.1. Как подписаться
-Для подписки на бот логера нужно перейти по ссылке **после** регистрации @ZeonGameLoggerBot t.me/@ZeonGameLoggerBot или нажать на кнопку "Подписаться на логгер" в основном боте @ZeonGameBot t.me/ZeonGameBot.</t>
   </si>
   <si>
     <t>## 4. Настройка бота</t>
@@ -2184,6 +2180,452 @@
   </si>
   <si>
     <t>Translation (Franch)</t>
+  </si>
+  <si>
+    <t>* Вам не нужно устанавлива дополнительный софт!</t>
+  </si>
+  <si>
+    <t>* Мы создаём эмулятора на нашем сервере, на котором в последствии будет запущена игра с вашим игровым аккаунтом.</t>
+  </si>
+  <si>
+    <t>* Использование нейросетей для распознавания событий, что даёт возможность применение умной и гибкой логики.</t>
+  </si>
+  <si>
+    <t>* Бот может работать круглосуточно, запуск и остановка производится из интерфейса телеграм.</t>
+  </si>
+  <si>
+    <t>* Очень гибкая настройка поведения бота.</t>
+  </si>
+  <si>
+    <t>* Защитные действия при нападении на базу игрока.</t>
+  </si>
+  <si>
+    <t>* Подробное логирование о действиях бота.</t>
+  </si>
+  <si>
+    <t>* Поддержка любого количество персонажей в рамках одного игрового аккаунта.</t>
+  </si>
+  <si>
+    <t>* Активная поддержка бота.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 1.2. Процесс регистрации в боте  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Шаг 1. Введите или выберете команду **/start**.</t>
+  </si>
+  <si>
+    <t>![](illustrations/image-54.png)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  Шаг 2. Нажмите "Зарегистрироваться".</t>
+  </si>
+  <si>
+    <t>![](illustrations/image-38.png)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  Шаг 3. Введите E-mail к которому у вас есть доступ для подтверждения регистрации в ZeonBot.</t>
+  </si>
+  <si>
+    <t>![](illustrations/image-39.png)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  Шаг 4. Введите имя вашего аккаунта в ZeonBot.</t>
+  </si>
+  <si>
+    <t>![](illustrations/image-40.png)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  Шаг 5. Введите надёжный пароль.</t>
+  </si>
+  <si>
+    <t>![](illustrations/image-41.png)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  Шаг 6. На этом этапе вам отправлено письмо с подтверждением на email, который вывводили на шаге.3. Перейдите по ссылке в письме, чтобы подтвердить почту.</t>
+  </si>
+  <si>
+    <t>![](illustrations/image-42.png)</t>
+  </si>
+  <si>
+    <t>![](illustrations/image-43.png)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  Шаг 7. После подтверждения вы увидете соледующее сообщение. Нажмите команду **/start**. Чтобы начать процесс создания внутриигрового бота.</t>
+  </si>
+  <si>
+    <t>![](illustrations/image-44.png)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Шаг 1. Для создание внутриигрового бота. нажмите на кнопку **Создать игрового бота**.</t>
+  </si>
+  <si>
+    <t>![](illustrations/image-45.png)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  Шаг 2. Выберете игру из списка доступных.</t>
+  </si>
+  <si>
+    <t>![](illustrations/image-84.png)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  Шаг 3.  Придумайте и введите имя для вашего игрового бота.</t>
+  </si>
+  <si>
+    <t>![](illustrations/image-114.png)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  Шаг 4. Выберите платформу для входа в внутриигровой аккаунт.</t>
+  </si>
+  <si>
+    <t>![](illustrations/image-134.png)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+\textcolor{red}{ВАЖНО!} Этап подготовки эмулятора к входу в внутриигровой аккаунт на наших серверах займёт некоторое время, следите за сообщениями получаемые в telegram от Zeon Game Bot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Шаг 5. Последовательно вводите запрашиваемые ботом данные в зависимости от выбраного способа авторизации. </t>
+  </si>
+  <si>
+    <t>![](illustrations/image-48.png)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Например для авторизации через Google потребудется ввести вашу почту и пароль, либо пройти двухэтапную аутентификацию как показано на изображениях ниже.</t>
+  </si>
+  <si>
+    <t>![](illustrations/af45f2f3-ad83-44c2-9c04-4e0272dbdd1a1.jpg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+\textcolor{red}{ВАЖНО!} После прохождения процедуры входа в внутриигровой аккаунт за вами будет закреплено место на нашем сервере, создан эмулятор android для вашего аккаунта и получен список персонажей доступных к использованию. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * \textcolor{red}{ОЧЕНЬ ВАЖНО! БОТ РАБОТАЕТ ТОЛЬКО С ПЕРСОНАЖАМИ ЧЕЙ УРОВЕНЬ ШТАБ-КВАРТИРЫ ВЫШЕ 9-ГО УРОВНЯ.}</t>
+  </si>
+  <si>
+    <t>![](illustrations/image-46.png)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+\newpage</t>
+  </si>
+  <si>
+    <t>![](illustrations/image-144.png)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+После открытия логгер-бота введите команду /start или нажать кнопку "start".</t>
+  </si>
+  <si>
+    <t>![](illustrations/image-154.png)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Всё готово, логгер подключен!</t>
+  </si>
+  <si>
+    <t>![](illustrations/image-204.png)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Для выбора персонажа необходимо нажать на персонажа. Если появилась галочка - значит персонаж выбран и будет учавствовать в ротации персонажей при работе бота.</t>
+  </si>
+  <si>
+    <t>![](illustrations/image-27.png)</t>
+  </si>
+  <si>
+    <t>![](illustrations/image-28.png)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\textcolor{red}{ВАЖНО!} Бот работает с позицией персонажа в списке персонажей в игре. Если какой-либо из доступных персонажей поменяет свою позицию в списке это приведёт к ошибкам в работе бота. </t>
+  </si>
+  <si>
+    <t>**Причины перемещение персонажа в списке:**</t>
+  </si>
+  <si>
+    <t>1. Добавление нового персонажа.</t>
+  </si>
+  <si>
+    <t>![](illustrations/image-24.png)</t>
+  </si>
+  <si>
+    <t>![](illustrations/image-25.png)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Далее необходимо выбрать персонажа на для которого вы будете задавать настройки.</t>
+  </si>
+  <si>
+    <t>![](illustrations/image-30.png)</t>
+  </si>
+  <si>
+    <t>![](illustrations/image-31.png)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для полноценной настройки персонажа зайдите в меню **Расширенные настройки**. Там у вас будет возможность задать большое количество параметров регламентирующих поведение бота. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * Рекомендуем держать игру открытой во время установки **Расширенных настроек**, так ориентирование в настройках будет более интуитивным и поможет вам выжать максимум из бота.</t>
+  </si>
+  <si>
+    <t>![](illustrations/image-32.png)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В этой главе приведены описания того, что делает бот в каждой из игровых механик. Гиперссылками (текст синего цвета) выделены связанные с механикой параметры. При наведении на гиперссылку всплывет меню с подсказкой о том, что делает конкретный параметр. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Для сбора ресурсов приоритетно выбираются наездники (самые быстрые). Производится расчёт необходимого количества юнитов для сбора каждого ресурса, чтобы не тратить на это время в процессе формирования отряда.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * Быстрый сбор \ParamLink{Быстрый сбор плитки}{map_speed_up}{Разрешение на использование механики быстрого сбора плитки. При быстром сборе не проверяется число ресурсов на плитке, однако вероятность пересечения маршей сокращается в разы} — полезен после события «Доблестное завоевание».</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * Если выбрано «улучшение», но улучшать некого — обучаются новые юниты самого высокого тира.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * Проверка на нехватку ресурсов \ParamLink{Ресурсы со склада}{store_permit}{Разрешение на использование реурсов со склада, в случае их нехватки для старта активности} выполняется перед каждой отправкой юнитов.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * При неудаче бот понижает \ParamLink{Минимальный процент}{hole_min_percent}{Минимальный процент заполненности ямы слабого противника, при котором начинается атака} на 1%. Если включён \ParamLink{Мирный режим}{hole_peaceful_mode}{Разрешение на занятие свободной редкоземельной ямы}, бот занимает свободную яму.</t>
+  </si>
+  <si>
+    <t>6. После исследования всех секторов, если противник не найден, бот понижает уровень поля \ParamLink{Уровень поля}{hole_target_level}{Уровень поля в которое бот заходит для поиска противника}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * Бот отзывает отряд при возможности, чтобы игрок не стал привлекательной целью для грабежа.</t>
+  </si>
+  <si>
+    <t>![](illustrations/image-37.png)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Вход в тюрьму согласно выбранному \ParamLink{Уровеню тюрьмы}{company_prison_level}{Уровень тюрьмы, в которую бот заходит.}, если ранее вход не осуществлялся.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * \textcolor{red}{Бот не проводит бои в тюрьме самостоятельно!}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Проверка на игнорирование механики \ParamLink{Игнорируемые механики (Банк)}{ignor_states}{Выбранные механики которые будут игнорироваться при работе бота}.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * Стоимость дополнительного производства начинается с 200 алмазов и увеличивается на 200 алмазов после каждого дополнительного производства, вплоть до 1000.</t>
+  </si>
+  <si>
+    <t>3. При смене условий «Чрезвычайной ситуации» выбираются 5 сильнейших персонажей.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * Обратите внимание: ротация может влиять на силу персонажей, поэтому следите за актуальностью группы.</t>
+  </si>
+  <si>
+    <t>4. Подбор оппонента за 15 минут:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.1. Поиск соперника с меньшей мощью.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.2. Если разрешено \ParamLink{Атаковать сильного соперника}{over_power_arena_fight}{Разрешение на сражение с сильными соперниками}, она активируется после 10 итераций поиска.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. После исчерпания бесплатных попыток используется заданное \ParamLink{Количество токенов дуэли}{arena_tokens}{Количество пропусков на дуэль в режиме «Выживание» которое бот использует в течении одного дня}.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * \textcolor{red}{Бот не покупает токены самостоятельно.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * Если доступно токенов больше, чем у игрока — используются все доступные.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * При поиске также проверяется, чтобы основной юнит был контр-юнитом против оппонента.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.1. Сначала выбирается технология с меткой «HOT».</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.2. Если технология требует недоступный ресурс, то выбирается другая, по параметру \ParamLink{Исследование альянса}{alliance_res}{Тип ресурса который можем потратить на улучшение технологии альянса.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.3. Пополнение происходит через \ParamLink{Ресурсы со склада}{store_permit}{Разрешение на использование реурсов со склада, в случае их нехватки для старта активности}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Выбранные механики которые будут игнорироваться при работе бота. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">### Переполнение сыворотки {#serum_limit_ignore}  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Уровень кампании для фарма от 1 до 24. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\textbf{Совет:} Рассмотрим сценарии: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * Первый, у вас открыта 2 сложность кампании и открыт 5 уровень, значит для оптимальной работы нужно выставить сложность кампании 2 и уровень 4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * Второй, у вас открыт уровень выбранный уровень до подуровня от 7 до 9, в таком случае вы можете указать текущий открытый уровень, но при этом выбрать 1 подуровень. Эти сценарии позволит не тратить энергию впустую имея шанс на поражение и гарантирует победу в бою.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\textbf{Совет:} Выбирайте срок с учётом активности альянса и максимальной помощи которую вам могут оказать. Одна оказанная помощь снижает время исцеления на 30-162 секунды, поэтому выгодно отправлять войска на исцеление маленькими группами, чтобы получить максимальное количество помощи. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Разрешение на полную скупку всех товаров указаных в списке доступных. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бот распределяет бесплатные клики и клики за алмазы равномерно между всеми указанными ресурсами. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">При нападении на вашу базу бот автоматически наденет бесплатный доступный щит на 2 или 8 часов. В случае отсутствия таких щитов, будет предпринята попытка покупки щита за алмазы, если такая возможность установлена в соответствующем параметре. </t>
+  </si>
+  <si>
+    <t>line_0384</t>
+  </si>
+  <si>
+    <t>line_0385</t>
+  </si>
+  <si>
+    <t>line_0386</t>
+  </si>
+  <si>
+    <t>line_0387</t>
+  </si>
+  <si>
+    <t>line_0388</t>
+  </si>
+  <si>
+    <t>line_0389</t>
+  </si>
+  <si>
+    <t>line_0390</t>
+  </si>
+  <si>
+    <t>line_0391</t>
+  </si>
+  <si>
+    <t>line_0392</t>
+  </si>
+  <si>
+    <t>line_0393</t>
+  </si>
+  <si>
+    <t>line_0394</t>
+  </si>
+  <si>
+    <t>line_0395</t>
+  </si>
+  <si>
+    <t>line_0396</t>
+  </si>
+  <si>
+    <t>line_0397</t>
+  </si>
+  <si>
+    <t>line_0398</t>
+  </si>
+  <si>
+    <t>line_0399</t>
+  </si>
+  <si>
+    <t>line_0400</t>
+  </si>
+  <si>
+    <t>line_0401</t>
+  </si>
+  <si>
+    <t>line_0402</t>
+  </si>
+  <si>
+    <t>line_0403</t>
+  </si>
+  <si>
+    <t>line_0404</t>
+  </si>
+  <si>
+    <t>line_0405</t>
+  </si>
+  <si>
+    <t>line_0406</t>
+  </si>
+  <si>
+    <t>line_0407</t>
+  </si>
+  <si>
+    <t>line_0408</t>
+  </si>
+  <si>
+    <t>line_0409</t>
+  </si>
+  <si>
+    <t>line_0410</t>
+  </si>
+  <si>
+    <t>line_0411</t>
+  </si>
+  <si>
+    <t>line_0412</t>
+  </si>
+  <si>
+    <t>line_0413</t>
+  </si>
+  <si>
+    <t>line_0414</t>
+  </si>
+  <si>
+    <t>line_0415</t>
+  </si>
+  <si>
+    <t>line_0416</t>
+  </si>
+  <si>
+    <t>line_0417</t>
+  </si>
+  <si>
+    <t>line_0418</t>
+  </si>
+  <si>
+    <t>line_0419</t>
+  </si>
+  <si>
+    <t>line_0420</t>
+  </si>
+  <si>
+    <t>line_0421</t>
+  </si>
+  <si>
+    <t>line_0422</t>
+  </si>
+  <si>
+    <t>line_0423</t>
+  </si>
+  <si>
+    <t>line_0424</t>
+  </si>
+  <si>
+    <t>line_0425</t>
+  </si>
+  <si>
+    <t>line_0426</t>
+  </si>
+  <si>
+    <t>line_0427</t>
+  </si>
+  <si>
+    <t>line_0428</t>
+  </si>
+  <si>
+    <t>line_0429</t>
+  </si>
+  <si>
+    <t>image</t>
   </si>
   <si>
     <t>---
@@ -2195,6 +2637,7 @@
 geometry: top=1.5cm, bottom=1.5cm, left=2cm, right=2cm
 header-includes:
   - \usepackage{pdfcomment}
+  - \usepackage{graphicx}
   - \usepackage{xcolor}
   - \usepackage{hyperref}
   - \hypersetup{colorlinks=true, linkcolor=blue}
@@ -2202,477 +2645,32 @@
 ---</t>
   </si>
   <si>
-    <t>* Вам не нужно устанавлива дополнительный софт!</t>
-  </si>
-  <si>
-    <t>* Мы создаём эмулятора на нашем сервере, на котором в последствии будет запущена игра с вашим игровым аккаунтом.</t>
-  </si>
-  <si>
-    <t>* Использование нейросетей для распознавания событий, что даёт возможность применение умной и гибкой логики.</t>
-  </si>
-  <si>
-    <t>* Бот может работать круглосуточно, запуск и остановка производится из интерфейса телеграм.</t>
-  </si>
-  <si>
-    <t>* Очень гибкая настройка поведения бота.</t>
-  </si>
-  <si>
-    <t>* Защитные действия при нападении на базу игрока.</t>
-  </si>
-  <si>
-    <t>* Подробное логирование о действиях бота.</t>
-  </si>
-  <si>
-    <t>* Поддержка любого количество персонажей в рамках одного игрового аккаунта.</t>
-  </si>
-  <si>
-    <t>* Активная поддержка бота.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">### 1.2. Процесс регистрации в боте  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Шаг 1. Введите или выберете команду **/start**.</t>
-  </si>
-  <si>
-    <t>![](illustrations/image-54.png)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-  Шаг 2. Нажмите "Зарегистрироваться".</t>
-  </si>
-  <si>
-    <t>![](illustrations/image-38.png)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-  Шаг 3. Введите E-mail к которому у вас есть доступ для подтверждения регистрации в ZeonBot.</t>
-  </si>
-  <si>
-    <t>![](illustrations/image-39.png)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-  Шаг 4. Введите имя вашего аккаунта в ZeonBot.</t>
-  </si>
-  <si>
-    <t>![](illustrations/image-40.png)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-  Шаг 5. Введите надёжный пароль.</t>
-  </si>
-  <si>
-    <t>![](illustrations/image-41.png)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-  Шаг 6. На этом этапе вам отправлено письмо с подтверждением на email, который вывводили на шаге.3. Перейдите по ссылке в письме, чтобы подтвердить почту.</t>
-  </si>
-  <si>
-    <t>![](illustrations/image-42.png)</t>
-  </si>
-  <si>
-    <t>![](illustrations/image-43.png)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-  Шаг 7. После подтверждения вы увидете соледующее сообщение. Нажмите команду **/start**. Чтобы начать процесс создания внутриигрового бота.</t>
-  </si>
-  <si>
-    <t>![](illustrations/image-44.png)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Шаг 1. Для создание внутриигрового бота. нажмите на кнопку **Создать игрового бота**.</t>
-  </si>
-  <si>
-    <t>![](illustrations/image-45.png)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-  Шаг 2. Выберете игру из списка доступных.</t>
-  </si>
-  <si>
-    <t>![](illustrations/image-84.png)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-  Шаг 3.  Придумайте и введите имя для вашего игрового бота.</t>
-  </si>
-  <si>
-    <t>![](illustrations/image-114.png)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-  Шаг 4. Выберите платформу для входа в внутриигровой аккаунт.</t>
-  </si>
-  <si>
-    <t>![](illustrations/image-134.png)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-\textcolor{red}{ВАЖНО!} Этап подготовки эмулятора к входу в внутриигровой аккаунт на наших серверах займёт некоторое время, следите за сообщениями получаемые в telegram от Zeon Game Bot.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Шаг 5. Последовательно вводите запрашиваемые ботом данные в зависимости от выбраного способа авторизации. </t>
-  </si>
-  <si>
-    <t>![](illustrations/image-48.png)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Например для авторизации через Google потребудется ввести вашу почту и пароль, либо пройти двухэтапную аутентификацию как показано на изображениях ниже.</t>
-  </si>
-  <si>
-    <t>![](illustrations/af45f2f3-ad83-44c2-9c04-4e0272dbdd1a1.jpg)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-\textcolor{red}{ВАЖНО!} После прохождения процедуры входа в внутриигровой аккаунт за вами будет закреплено место на нашем сервере, создан эмулятор android для вашего аккаунта и получен список персонажей доступных к использованию. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * \textcolor{red}{ОЧЕНЬ ВАЖНО! БОТ РАБОТАЕТ ТОЛЬКО С ПЕРСОНАЖАМИ ЧЕЙ УРОВЕНЬ ШТАБ-КВАРТИРЫ ВЫШЕ 9-ГО УРОВНЯ.}</t>
-  </si>
-  <si>
-    <t>![](illustrations/image-46.png)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-\newpage</t>
-  </si>
-  <si>
-    <t>![](illustrations/image-144.png)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-После открытия логгер-бота введите команду /start или нажать кнопку "start".</t>
-  </si>
-  <si>
-    <t>![](illustrations/image-154.png)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Всё готово, логгер подключен!</t>
-  </si>
-  <si>
-    <t>![](illustrations/image-204.png)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Для выбора персонажа необходимо нажать на персонажа. Если появилась галочка - значит персонаж выбран и будет учавствовать в ротации персонажей при работе бота.</t>
-  </si>
-  <si>
-    <t>![](illustrations/image-27.png)</t>
-  </si>
-  <si>
-    <t>![](illustrations/image-28.png)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\textcolor{red}{ВАЖНО!} Бот работает с позицией персонажа в списке персонажей в игре. Если какой-либо из доступных персонажей поменяет свою позицию в списке это приведёт к ошибкам в работе бота. </t>
-  </si>
-  <si>
-    <t>**Причины перемещение персонажа в списке:**</t>
-  </si>
-  <si>
-    <t>1. Добавление нового персонажа.</t>
-  </si>
-  <si>
-    <t>![](illustrations/image-24.png)</t>
-  </si>
-  <si>
-    <t>![](illustrations/image-25.png)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Далее необходимо выбрать персонажа на для которого вы будете задавать настройки.</t>
-  </si>
-  <si>
-    <t>![](illustrations/image-30.png)</t>
-  </si>
-  <si>
-    <t>![](illustrations/image-31.png)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Для полноценной настройки персонажа зайдите в меню **Расширенные настройки**. Там у вас будет возможность задать большое количество параметров регламентирующих поведение бота. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * Рекомендуем держать игру открытой во время установки **Расширенных настроек**, так ориентирование в настройках будет более интуитивным и поможет вам выжать максимум из бота.</t>
-  </si>
-  <si>
-    <t>![](illustrations/image-32.png)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В этой главе приведены описания того, что делает бот в каждой из игровых механик. Гиперссылками (текст синего цвета) выделены связанные с механикой параметры. При наведении на гиперссылку всплывет меню с подсказкой о том, что делает конкретный параметр. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Для сбора ресурсов приоритетно выбираются наездники (самые быстрые). Производится расчёт необходимого количества юнитов для сбора каждого ресурса, чтобы не тратить на это время в процессе формирования отряда.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * Быстрый сбор \ParamLink{Быстрый сбор плитки}{map_speed_up}{Разрешение на использование механики быстрого сбора плитки. При быстром сборе не проверяется число ресурсов на плитке, однако вероятность пересечения маршей сокращается в разы} — полезен после события «Доблестное завоевание».</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * Если выбрано «улучшение», но улучшать некого — обучаются новые юниты самого высокого тира.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * Проверка на нехватку ресурсов \ParamLink{Ресурсы со склада}{store_permit}{Разрешение на использование реурсов со склада, в случае их нехватки для старта активности} выполняется перед каждой отправкой юнитов.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * При неудаче бот понижает \ParamLink{Минимальный процент}{hole_min_percent}{Минимальный процент заполненности ямы слабого противника, при котором начинается атака} на 1%. Если включён \ParamLink{Мирный режим}{hole_peaceful_mode}{Разрешение на занятие свободной редкоземельной ямы}, бот занимает свободную яму.</t>
-  </si>
-  <si>
-    <t>6. После исследования всех секторов, если противник не найден, бот понижает уровень поля \ParamLink{Уровень поля}{hole_target_level}{Уровень поля в которое бот заходит для поиска противника}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * Бот отзывает отряд при возможности, чтобы игрок не стал привлекательной целью для грабежа.</t>
-  </si>
-  <si>
-    <t>![](illustrations/image-37.png)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9. Вход в тюрьму согласно выбранному \ParamLink{Уровеню тюрьмы}{company_prison_level}{Уровень тюрьмы, в которую бот заходит.}, если ранее вход не осуществлялся.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * \textcolor{red}{Бот не проводит бои в тюрьме самостоятельно!}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Проверка на игнорирование механики \ParamLink{Игнорируемые механики (Банк)}{ignor_states}{Выбранные механики которые будут игнорироваться при работе бота}.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * Стоимость дополнительного производства начинается с 200 алмазов и увеличивается на 200 алмазов после каждого дополнительного производства, вплоть до 1000.</t>
-  </si>
-  <si>
-    <t>3. При смене условий «Чрезвычайной ситуации» выбираются 5 сильнейших персонажей.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * Обратите внимание: ротация может влиять на силу персонажей, поэтому следите за актуальностью группы.</t>
-  </si>
-  <si>
-    <t>4. Подбор оппонента за 15 минут:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.1. Поиск соперника с меньшей мощью.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.2. Если разрешено \ParamLink{Атаковать сильного соперника}{over_power_arena_fight}{Разрешение на сражение с сильными соперниками}, она активируется после 10 итераций поиска.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. После исчерпания бесплатных попыток используется заданное \ParamLink{Количество токенов дуэли}{arena_tokens}{Количество пропусков на дуэль в режиме «Выживание» которое бот использует в течении одного дня}.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * \textcolor{red}{Бот не покупает токены самостоятельно.}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * Если доступно токенов больше, чем у игрока — используются все доступные.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * При поиске также проверяется, чтобы основной юнит был контр-юнитом против оппонента.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3.1. Сначала выбирается технология с меткой «HOT».</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3.2. Если технология требует недоступный ресурс, то выбирается другая, по параметру \ParamLink{Исследование альянса}{alliance_res}{Тип ресурса который можем потратить на улучшение технологии альянса.}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3.3. Пополнение происходит через \ParamLink{Ресурсы со склада}{store_permit}{Разрешение на использование реурсов со склада, в случае их нехватки для старта активности}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3.1. **Надевание щита:**  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    * Вход в меню усиления убежища и поиск щитов.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    * Используются щиты на 2 и 8 часов. Если бесплатных нет, покупается щит на 2 часа при разрешении \ParamLink{Покупка щита}{war_diamond_shield}{Разрешение на покупку щита за алмазы}.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    * Если обнаружена боевая лихорадка, щит не надевается.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3.2. **Использование телепорта:**  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    * Переход на карту мира и ввод координат согласно режиму телепортации \ParamLink{Телепорт поблизости}{war_teleport_nearest}{Разрешение на телепортацию только вблизи базы (в радиусе 50 клеток)}.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    * Если \ParamLink{Телепорт поблизости}{war_teleport_nearest}{Разрешение на телепортацию только вблизи базы (в радиусе 50 клеток)} отключён, перемещение производится по всей карте (исключая территорию пустоши, зоны вокруг технического центра).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    * При выборе обоих защитных сценариев приоритет отдается щиту \ParamLink{Использование щита}{war_shield_activate}{Разрешение на применение доступных (бесплатных) щитов}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Выбранные механики которые будут игнорироваться при работе бота. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">### Переполнение сыворотки {#serum_limit_ignore}  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Уровень кампании для фарма от 1 до 24. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\textbf{Совет:} Рассмотрим сценарии: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * Первый, у вас открыта 2 сложность кампании и открыт 5 уровень, значит для оптимальной работы нужно выставить сложность кампании 2 и уровень 4.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * Второй, у вас открыт уровень выбранный уровень до подуровня от 7 до 9, в таком случае вы можете указать текущий открытый уровень, но при этом выбрать 1 подуровень. Эти сценарии позволит не тратить энергию впустую имея шанс на поражение и гарантирует победу в бою.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\textbf{Совет:} Выбирайте срок с учётом активности альянса и максимальной помощи которую вам могут оказать. Одна оказанная помощь снижает время исцеления на 30-162 секунды, поэтому выгодно отправлять войска на исцеление маленькими группами, чтобы получить максимальное количество помощи. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Разрешение на полную скупку всех товаров указаных в списке доступных. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бот распределяет бесплатные клики и клики за алмазы равномерно между всеми указанными ресурсами. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">При нападении на вашу базу бот автоматически наденет бесплатный доступный щит на 2 или 8 часов. В случае отсутствия таких щитов, будет предпринята попытка покупки щита за алмазы, если такая возможность установлена в соответствующем параметре. </t>
-  </si>
-  <si>
-    <t>line_0384</t>
-  </si>
-  <si>
-    <t>line_0385</t>
-  </si>
-  <si>
-    <t>line_0386</t>
-  </si>
-  <si>
-    <t>line_0387</t>
-  </si>
-  <si>
-    <t>line_0388</t>
-  </si>
-  <si>
-    <t>line_0389</t>
-  </si>
-  <si>
-    <t>line_0390</t>
-  </si>
-  <si>
-    <t>line_0391</t>
-  </si>
-  <si>
-    <t>line_0392</t>
-  </si>
-  <si>
-    <t>line_0393</t>
-  </si>
-  <si>
-    <t>line_0394</t>
-  </si>
-  <si>
-    <t>line_0395</t>
-  </si>
-  <si>
-    <t>line_0396</t>
-  </si>
-  <si>
-    <t>line_0397</t>
-  </si>
-  <si>
-    <t>line_0398</t>
-  </si>
-  <si>
-    <t>line_0399</t>
-  </si>
-  <si>
-    <t>line_0400</t>
-  </si>
-  <si>
-    <t>line_0401</t>
-  </si>
-  <si>
-    <t>line_0402</t>
-  </si>
-  <si>
-    <t>line_0403</t>
-  </si>
-  <si>
-    <t>line_0404</t>
-  </si>
-  <si>
-    <t>line_0405</t>
-  </si>
-  <si>
-    <t>line_0406</t>
-  </si>
-  <si>
-    <t>line_0407</t>
-  </si>
-  <si>
-    <t>line_0408</t>
-  </si>
-  <si>
-    <t>line_0409</t>
-  </si>
-  <si>
-    <t>line_0410</t>
-  </si>
-  <si>
-    <t>line_0411</t>
-  </si>
-  <si>
-    <t>line_0412</t>
-  </si>
-  <si>
-    <t>line_0413</t>
-  </si>
-  <si>
-    <t>line_0414</t>
-  </si>
-  <si>
-    <t>line_0415</t>
-  </si>
-  <si>
-    <t>line_0416</t>
-  </si>
-  <si>
-    <t>line_0417</t>
-  </si>
-  <si>
-    <t>line_0418</t>
-  </si>
-  <si>
-    <t>line_0419</t>
-  </si>
-  <si>
-    <t>line_0420</t>
-  </si>
-  <si>
-    <t>line_0421</t>
-  </si>
-  <si>
-    <t>line_0422</t>
-  </si>
-  <si>
-    <t>line_0423</t>
-  </si>
-  <si>
-    <t>line_0424</t>
-  </si>
-  <si>
-    <t>line_0425</t>
-  </si>
-  <si>
-    <t>line_0426</t>
-  </si>
-  <si>
-    <t>line_0427</t>
-  </si>
-  <si>
-    <t>line_0428</t>
-  </si>
-  <si>
-    <t>line_0429</t>
-  </si>
-  <si>
-    <t>line_0430</t>
-  </si>
-  <si>
-    <t>image</t>
+    <t>### 4.1. Как подписаться
+Для подписки на бот логера нужно перейти по ссылке **после** регистрации   [\textcolor{blue}{@ZeonGameLoggerBot}](https://t.me/@ZeonGameLoggerBot) или нажать на кнопку "Подписаться на логгер" в основном боте [\textcolor{blue}{@ZeonGameBot}](https://t.me/ZeonGameBot).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Надевание щита:**  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * Вход в меню усиления убежища и поиск щитов.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * Используются щиты на 2 и 8 часов. Если бесплатных нет, покупается щит на 2 часа при разрешении \ParamLink{Покупка щита}{war_diamond_shield}{Разрешение на покупку щита за алмазы}.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * Если обнаружена боевая лихорадка, щит не надевается.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Использование телепорта:**  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * Переход на карту мира и ввод координат согласно режиму телепортации \ParamLink{Телепорт поблизости}{war_teleport_nearest}{Разрешение на телепортацию только вблизи базы (в радиусе 50 клеток)}.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * Если \ParamLink{Телепорт поблизости}{war_teleport_nearest}{Разрешение на телепортацию только вблизи базы (в радиусе 50 клеток)} отключён, перемещение производится по всей карте (исключая территорию пустоши, зоны вокруг технического центра).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * При выборе обоих защитных сценариев приоритет отдается щиту \ParamLink{Использование щита}{war_shield_activate}{Разрешение на применение доступных (бесплатных) щитов}.</t>
   </si>
 </sst>
 </file>
@@ -2731,13 +2729,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3043,10 +3038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R431"/>
+  <dimension ref="A1:R430"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3076,49 +3071,49 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>712</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>709</v>
       </c>
       <c r="R1" s="1"/>
     </row>
@@ -3130,10 +3125,10 @@
         <v>385</v>
       </c>
       <c r="C2" t="s">
-        <v>713</v>
+        <v>855</v>
       </c>
       <c r="D2" t="s">
-        <v>713</v>
+        <v>855</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3169,7 +3164,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>385</v>
+        <v>386</v>
+      </c>
+      <c r="C5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D5" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3177,13 +3178,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C6" t="s">
-        <v>389</v>
+        <v>712</v>
       </c>
       <c r="D6" t="s">
-        <v>389</v>
+        <v>712</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3194,10 +3195,10 @@
         <v>385</v>
       </c>
       <c r="C7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3208,10 +3209,10 @@
         <v>385</v>
       </c>
       <c r="C8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3222,10 +3223,10 @@
         <v>385</v>
       </c>
       <c r="C9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -3236,10 +3237,10 @@
         <v>385</v>
       </c>
       <c r="C10" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D10" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3250,10 +3251,10 @@
         <v>385</v>
       </c>
       <c r="C11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -3264,10 +3265,10 @@
         <v>385</v>
       </c>
       <c r="C12" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D12" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -3278,10 +3279,10 @@
         <v>385</v>
       </c>
       <c r="C13" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D13" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -3292,10 +3293,10 @@
         <v>385</v>
       </c>
       <c r="C14" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D14" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -3306,10 +3307,10 @@
         <v>385</v>
       </c>
       <c r="C15" t="s">
-        <v>722</v>
+        <v>390</v>
       </c>
       <c r="D15" t="s">
-        <v>722</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -3317,13 +3318,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C16" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D16" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3334,10 +3335,10 @@
         <v>386</v>
       </c>
       <c r="C17" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D17" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3345,13 +3346,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C18" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D18" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3359,13 +3360,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C19" t="s">
-        <v>393</v>
+        <v>721</v>
       </c>
       <c r="D19" t="s">
-        <v>393</v>
+        <v>721</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3373,13 +3374,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C20" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D20" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3387,13 +3388,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>385</v>
+        <v>854</v>
       </c>
       <c r="C21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3401,13 +3402,13 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>865</v>
+        <v>385</v>
       </c>
       <c r="C22" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D22" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3415,13 +3416,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>385</v>
+        <v>854</v>
       </c>
       <c r="C23" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D23" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3429,13 +3430,13 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>865</v>
+        <v>385</v>
       </c>
       <c r="C24" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D24" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3443,13 +3444,13 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>385</v>
+        <v>854</v>
       </c>
       <c r="C25" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D25" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3457,13 +3458,13 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>865</v>
+        <v>385</v>
       </c>
       <c r="C26" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D26" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3471,13 +3472,13 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>385</v>
+        <v>854</v>
       </c>
       <c r="C27" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D27" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3485,13 +3486,13 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>865</v>
+        <v>385</v>
       </c>
       <c r="C28" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D28" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3499,13 +3500,13 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>385</v>
+        <v>854</v>
       </c>
       <c r="C29" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D29" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3513,13 +3514,13 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>865</v>
+        <v>385</v>
       </c>
       <c r="C30" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D30" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3527,13 +3528,13 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>385</v>
+        <v>854</v>
       </c>
       <c r="C31" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D31" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3541,13 +3542,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>865</v>
-      </c>
-      <c r="C32" t="s">
-        <v>735</v>
-      </c>
-      <c r="D32" t="s">
-        <v>735</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3555,7 +3550,13 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>385</v>
+        <v>854</v>
+      </c>
+      <c r="C33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D33" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3563,13 +3564,13 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>865</v>
+        <v>385</v>
       </c>
       <c r="C34" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D34" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3577,13 +3578,13 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>385</v>
+        <v>854</v>
       </c>
       <c r="C35" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D35" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3591,13 +3592,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>865</v>
-      </c>
-      <c r="C36" t="s">
-        <v>738</v>
-      </c>
-      <c r="D36" t="s">
-        <v>738</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3605,7 +3600,13 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>385</v>
+        <v>386</v>
+      </c>
+      <c r="C37" t="s">
+        <v>394</v>
+      </c>
+      <c r="D37" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3613,13 +3614,13 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C38" t="s">
-        <v>394</v>
+        <v>737</v>
       </c>
       <c r="D38" t="s">
-        <v>394</v>
+        <v>737</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3627,13 +3628,13 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>385</v>
+        <v>854</v>
       </c>
       <c r="C39" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D39" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3641,13 +3642,13 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>865</v>
+        <v>385</v>
       </c>
       <c r="C40" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D40" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3655,13 +3656,13 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>385</v>
+        <v>854</v>
       </c>
       <c r="C41" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D41" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3669,13 +3670,13 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>865</v>
+        <v>385</v>
       </c>
       <c r="C42" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D42" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3686,10 +3687,10 @@
         <v>385</v>
       </c>
       <c r="C43" t="s">
-        <v>743</v>
+        <v>395</v>
       </c>
       <c r="D43" t="s">
-        <v>743</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3697,13 +3698,13 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>385</v>
+        <v>854</v>
       </c>
       <c r="C44" t="s">
-        <v>395</v>
+        <v>742</v>
       </c>
       <c r="D44" t="s">
-        <v>395</v>
+        <v>742</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3711,27 +3712,27 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>865</v>
+        <v>385</v>
       </c>
       <c r="C45" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D45" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>385</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>745</v>
+      <c r="C46" t="s">
+        <v>396</v>
+      </c>
+      <c r="D46" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3742,10 +3743,10 @@
         <v>385</v>
       </c>
       <c r="C47" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D47" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3756,10 +3757,10 @@
         <v>385</v>
       </c>
       <c r="C48" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D48" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3767,13 +3768,13 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>385</v>
+        <v>854</v>
       </c>
       <c r="C49" t="s">
-        <v>398</v>
+        <v>744</v>
       </c>
       <c r="D49" t="s">
-        <v>398</v>
+        <v>744</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3781,13 +3782,13 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>865</v>
+        <v>385</v>
       </c>
       <c r="C50" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D50" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3798,10 +3799,10 @@
         <v>385</v>
       </c>
       <c r="C51" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D51" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3809,13 +3810,13 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>385</v>
+        <v>854</v>
       </c>
       <c r="C52" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D52" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3823,13 +3824,13 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>865</v>
+        <v>385</v>
       </c>
       <c r="C53" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D53" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3837,13 +3838,13 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>385</v>
+        <v>854</v>
       </c>
       <c r="C54" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D54" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3851,13 +3852,13 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>865</v>
+        <v>385</v>
       </c>
       <c r="C55" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D55" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3868,10 +3869,10 @@
         <v>385</v>
       </c>
       <c r="C56" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D56" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3879,13 +3880,13 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C57" t="s">
-        <v>753</v>
+        <v>399</v>
       </c>
       <c r="D57" t="s">
-        <v>753</v>
+        <v>399</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3893,13 +3894,13 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C58" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D58" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3907,13 +3908,13 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>385</v>
+        <v>854</v>
       </c>
       <c r="C59" t="s">
-        <v>400</v>
+        <v>752</v>
       </c>
       <c r="D59" t="s">
-        <v>400</v>
+        <v>752</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3921,13 +3922,13 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>865</v>
+        <v>385</v>
       </c>
       <c r="C60" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D60" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3935,13 +3936,13 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C61" t="s">
-        <v>755</v>
+        <v>401</v>
       </c>
       <c r="D61" t="s">
-        <v>755</v>
+        <v>401</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3949,13 +3950,13 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C62" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D62" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3963,13 +3964,13 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C63" t="s">
-        <v>402</v>
+        <v>856</v>
       </c>
       <c r="D63" t="s">
-        <v>402</v>
+        <v>856</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3977,13 +3978,13 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>386</v>
+        <v>854</v>
       </c>
       <c r="C64" t="s">
-        <v>403</v>
+        <v>754</v>
       </c>
       <c r="D64" t="s">
-        <v>403</v>
+        <v>754</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3991,13 +3992,13 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>865</v>
+        <v>385</v>
       </c>
       <c r="C65" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D65" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -4005,13 +4006,13 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>385</v>
+        <v>854</v>
       </c>
       <c r="C66" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D66" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -4019,13 +4020,13 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>865</v>
+        <v>385</v>
       </c>
       <c r="C67" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D67" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -4036,10 +4037,10 @@
         <v>385</v>
       </c>
       <c r="C68" t="s">
-        <v>759</v>
+        <v>390</v>
       </c>
       <c r="D68" t="s">
-        <v>759</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4047,13 +4048,13 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C69" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="D69" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -4075,7 +4076,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C71" t="s">
         <v>405</v>
@@ -4103,13 +4104,13 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>385</v>
+        <v>854</v>
       </c>
       <c r="C73" t="s">
-        <v>407</v>
+        <v>758</v>
       </c>
       <c r="D73" t="s">
-        <v>407</v>
+        <v>758</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -4117,13 +4118,13 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>865</v>
+        <v>385</v>
       </c>
       <c r="C74" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D74" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -4131,13 +4132,13 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>385</v>
+        <v>854</v>
       </c>
       <c r="C75" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D75" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -4145,13 +4146,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>865</v>
-      </c>
-      <c r="C76" t="s">
-        <v>762</v>
-      </c>
-      <c r="D76" t="s">
-        <v>762</v>
+        <v>385</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -4159,7 +4154,13 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>385</v>
+        <v>854</v>
+      </c>
+      <c r="C77" t="s">
+        <v>761</v>
+      </c>
+      <c r="D77" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -4167,13 +4168,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>865</v>
-      </c>
-      <c r="C78" t="s">
-        <v>763</v>
-      </c>
-      <c r="D78" t="s">
-        <v>763</v>
+        <v>385</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -4181,7 +4176,13 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>385</v>
+        <v>386</v>
+      </c>
+      <c r="C79" t="s">
+        <v>407</v>
+      </c>
+      <c r="D79" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -4189,13 +4190,13 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C80" t="s">
-        <v>408</v>
+        <v>762</v>
       </c>
       <c r="D80" t="s">
-        <v>408</v>
+        <v>762</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -4206,10 +4207,10 @@
         <v>385</v>
       </c>
       <c r="C81" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D81" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -4220,10 +4221,10 @@
         <v>385</v>
       </c>
       <c r="C82" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D82" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -4234,10 +4235,10 @@
         <v>385</v>
       </c>
       <c r="C83" t="s">
-        <v>766</v>
+        <v>408</v>
       </c>
       <c r="D83" t="s">
-        <v>766</v>
+        <v>408</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -4287,13 +4288,13 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>385</v>
+        <v>854</v>
       </c>
       <c r="C87" t="s">
-        <v>412</v>
+        <v>765</v>
       </c>
       <c r="D87" t="s">
-        <v>412</v>
+        <v>765</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -4301,13 +4302,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>865</v>
-      </c>
-      <c r="C88" t="s">
-        <v>767</v>
-      </c>
-      <c r="D88" t="s">
-        <v>767</v>
+        <v>385</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -4315,7 +4310,13 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>385</v>
+        <v>386</v>
+      </c>
+      <c r="C89" t="s">
+        <v>412</v>
+      </c>
+      <c r="D89" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -4323,7 +4324,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C90" t="s">
         <v>413</v>
@@ -4337,13 +4338,13 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>385</v>
+        <v>854</v>
       </c>
       <c r="C91" t="s">
-        <v>414</v>
+        <v>766</v>
       </c>
       <c r="D91" t="s">
-        <v>414</v>
+        <v>766</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -4351,13 +4352,13 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>865</v>
+        <v>385</v>
       </c>
       <c r="C92" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D92" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -4365,13 +4366,13 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>385</v>
+        <v>854</v>
       </c>
       <c r="C93" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D93" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -4379,13 +4380,13 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>865</v>
+        <v>385</v>
       </c>
       <c r="C94" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
       <c r="D94" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -4393,13 +4394,13 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C95" t="s">
-        <v>755</v>
+        <v>414</v>
       </c>
       <c r="D95" t="s">
-        <v>755</v>
+        <v>414</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -4407,7 +4408,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C96" t="s">
         <v>415</v>
@@ -4421,7 +4422,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C97" t="s">
         <v>416</v>
@@ -4435,7 +4436,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C98" t="s">
         <v>417</v>
@@ -4463,13 +4464,13 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>385</v>
+        <v>854</v>
       </c>
       <c r="C100" t="s">
-        <v>419</v>
+        <v>769</v>
       </c>
       <c r="D100" t="s">
-        <v>419</v>
+        <v>769</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -4477,13 +4478,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>865</v>
-      </c>
-      <c r="C101" t="s">
-        <v>771</v>
-      </c>
-      <c r="D101" t="s">
-        <v>771</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -4491,7 +4486,13 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>385</v>
+        <v>386</v>
+      </c>
+      <c r="C102" t="s">
+        <v>419</v>
+      </c>
+      <c r="D102" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -4499,13 +4500,13 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C103" t="s">
-        <v>420</v>
+        <v>770</v>
       </c>
       <c r="D103" t="s">
-        <v>420</v>
+        <v>770</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -4516,10 +4517,10 @@
         <v>385</v>
       </c>
       <c r="C104" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D104" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -4527,13 +4528,13 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>385</v>
+        <v>854</v>
       </c>
       <c r="C105" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D105" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -4541,13 +4542,13 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>865</v>
+        <v>385</v>
       </c>
       <c r="C106" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
       <c r="D106" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -4555,13 +4556,13 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C107" t="s">
-        <v>755</v>
+        <v>420</v>
       </c>
       <c r="D107" t="s">
-        <v>755</v>
+        <v>420</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -4569,13 +4570,13 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C108" t="s">
-        <v>421</v>
+        <v>773</v>
       </c>
       <c r="D108" t="s">
-        <v>421</v>
+        <v>773</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -4586,10 +4587,10 @@
         <v>385</v>
       </c>
       <c r="C109" t="s">
-        <v>775</v>
+        <v>421</v>
       </c>
       <c r="D109" t="s">
-        <v>775</v>
+        <v>421</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -4597,7 +4598,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C110" t="s">
         <v>422</v>
@@ -4611,7 +4612,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C111" t="s">
         <v>423</v>
@@ -4656,10 +4657,10 @@
         <v>385</v>
       </c>
       <c r="C114" t="s">
-        <v>426</v>
+        <v>774</v>
       </c>
       <c r="D114" t="s">
-        <v>426</v>
+        <v>774</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -4670,10 +4671,10 @@
         <v>385</v>
       </c>
       <c r="C115" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D115" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -4684,10 +4685,10 @@
         <v>385</v>
       </c>
       <c r="C116" t="s">
-        <v>777</v>
+        <v>426</v>
       </c>
       <c r="D116" t="s">
-        <v>777</v>
+        <v>426</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -4793,7 +4794,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C124" t="s">
         <v>434</v>
@@ -4807,7 +4808,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C125" t="s">
         <v>435</v>
@@ -4852,10 +4853,10 @@
         <v>385</v>
       </c>
       <c r="C128" t="s">
-        <v>438</v>
+        <v>776</v>
       </c>
       <c r="D128" t="s">
-        <v>438</v>
+        <v>776</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -4866,10 +4867,10 @@
         <v>385</v>
       </c>
       <c r="C129" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D129" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -4877,13 +4878,13 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C130" t="s">
-        <v>779</v>
+        <v>438</v>
       </c>
       <c r="D130" t="s">
-        <v>779</v>
+        <v>438</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -4891,7 +4892,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C131" t="s">
         <v>439</v>
@@ -4919,7 +4920,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C133" t="s">
         <v>441</v>
@@ -4933,7 +4934,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C134" t="s">
         <v>442</v>
@@ -4989,7 +4990,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C138" t="s">
         <v>446</v>
@@ -5003,7 +5004,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C139" t="s">
         <v>447</v>
@@ -5059,7 +5060,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C143" t="s">
         <v>451</v>
@@ -5073,7 +5074,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C144" t="s">
         <v>452</v>
@@ -5115,7 +5116,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C147" t="s">
         <v>455</v>
@@ -5129,7 +5130,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C148" t="s">
         <v>456</v>
@@ -5143,7 +5144,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C149" t="s">
         <v>457</v>
@@ -5157,7 +5158,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C150" t="s">
         <v>458</v>
@@ -5199,7 +5200,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C153" t="s">
         <v>461</v>
@@ -5213,7 +5214,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C154" t="s">
         <v>462</v>
@@ -5255,7 +5256,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C157" t="s">
         <v>465</v>
@@ -5269,7 +5270,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C158" t="s">
         <v>466</v>
@@ -5311,7 +5312,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C161" t="s">
         <v>469</v>
@@ -5325,7 +5326,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C162" t="s">
         <v>470</v>
@@ -5398,10 +5399,10 @@
         <v>385</v>
       </c>
       <c r="C167" t="s">
-        <v>475</v>
+        <v>778</v>
       </c>
       <c r="D167" t="s">
-        <v>475</v>
+        <v>778</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -5412,10 +5413,10 @@
         <v>385</v>
       </c>
       <c r="C168" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D168" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -5426,10 +5427,10 @@
         <v>385</v>
       </c>
       <c r="C169" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D169" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -5437,13 +5438,13 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>385</v>
+        <v>854</v>
       </c>
       <c r="C170" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D170" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -5451,13 +5452,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>865</v>
-      </c>
-      <c r="C171" t="s">
-        <v>783</v>
-      </c>
-      <c r="D171" t="s">
-        <v>783</v>
+        <v>385</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -5465,7 +5460,13 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>385</v>
+        <v>386</v>
+      </c>
+      <c r="C172" t="s">
+        <v>475</v>
+      </c>
+      <c r="D172" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -5473,7 +5474,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C173" t="s">
         <v>476</v>
@@ -5557,7 +5558,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C179" t="s">
         <v>482</v>
@@ -5571,7 +5572,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C180" t="s">
         <v>483</v>
@@ -5655,7 +5656,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C186" t="s">
         <v>489</v>
@@ -5669,7 +5670,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C187" t="s">
         <v>490</v>
@@ -5753,7 +5754,7 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C193" t="s">
         <v>496</v>
@@ -5767,7 +5768,7 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C194" t="s">
         <v>497</v>
@@ -5837,7 +5838,7 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C199" t="s">
         <v>502</v>
@@ -5851,7 +5852,7 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C200" t="s">
         <v>503</v>
@@ -5966,10 +5967,10 @@
         <v>385</v>
       </c>
       <c r="C208" t="s">
-        <v>511</v>
+        <v>782</v>
       </c>
       <c r="D208" t="s">
-        <v>511</v>
+        <v>782</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -5980,10 +5981,10 @@
         <v>385</v>
       </c>
       <c r="C209" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D209" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -5991,13 +5992,13 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C210" t="s">
-        <v>785</v>
+        <v>511</v>
       </c>
       <c r="D210" t="s">
-        <v>785</v>
+        <v>511</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -6005,13 +6006,13 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C211" t="s">
-        <v>512</v>
+        <v>784</v>
       </c>
       <c r="D211" t="s">
-        <v>512</v>
+        <v>784</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -6022,10 +6023,10 @@
         <v>385</v>
       </c>
       <c r="C212" t="s">
-        <v>786</v>
+        <v>512</v>
       </c>
       <c r="D212" t="s">
-        <v>786</v>
+        <v>512</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -6033,7 +6034,7 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C213" t="s">
         <v>513</v>
@@ -6047,7 +6048,7 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C214" t="s">
         <v>514</v>
@@ -6078,10 +6079,10 @@
         <v>385</v>
       </c>
       <c r="C216" t="s">
-        <v>516</v>
+        <v>785</v>
       </c>
       <c r="D216" t="s">
-        <v>516</v>
+        <v>785</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -6092,10 +6093,10 @@
         <v>385</v>
       </c>
       <c r="C217" t="s">
-        <v>787</v>
+        <v>516</v>
       </c>
       <c r="D217" t="s">
-        <v>787</v>
+        <v>516</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -6103,7 +6104,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C218" t="s">
         <v>517</v>
@@ -6117,7 +6118,7 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C219" t="s">
         <v>518</v>
@@ -6148,10 +6149,10 @@
         <v>385</v>
       </c>
       <c r="C221" t="s">
-        <v>520</v>
+        <v>786</v>
       </c>
       <c r="D221" t="s">
-        <v>520</v>
+        <v>786</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -6162,10 +6163,10 @@
         <v>385</v>
       </c>
       <c r="C222" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D222" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -6176,10 +6177,10 @@
         <v>385</v>
       </c>
       <c r="C223" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D223" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -6190,10 +6191,10 @@
         <v>385</v>
       </c>
       <c r="C224" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D224" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -6204,10 +6205,10 @@
         <v>385</v>
       </c>
       <c r="C225" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D225" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -6218,10 +6219,10 @@
         <v>385</v>
       </c>
       <c r="C226" t="s">
-        <v>792</v>
+        <v>520</v>
       </c>
       <c r="D226" t="s">
-        <v>792</v>
+        <v>520</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -6246,10 +6247,10 @@
         <v>385</v>
       </c>
       <c r="C228" t="s">
-        <v>522</v>
+        <v>791</v>
       </c>
       <c r="D228" t="s">
-        <v>522</v>
+        <v>791</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -6260,10 +6261,10 @@
         <v>385</v>
       </c>
       <c r="C229" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D229" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -6274,10 +6275,10 @@
         <v>385</v>
       </c>
       <c r="C230" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D230" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -6288,10 +6289,10 @@
         <v>385</v>
       </c>
       <c r="C231" t="s">
-        <v>795</v>
+        <v>522</v>
       </c>
       <c r="D231" t="s">
-        <v>795</v>
+        <v>522</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -6330,10 +6331,10 @@
         <v>385</v>
       </c>
       <c r="C234" t="s">
-        <v>525</v>
+        <v>792</v>
       </c>
       <c r="D234" t="s">
-        <v>525</v>
+        <v>792</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -6355,13 +6356,13 @@
         <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C236" t="s">
-        <v>796</v>
+        <v>525</v>
       </c>
       <c r="D236" t="s">
-        <v>796</v>
+        <v>525</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -6369,7 +6370,7 @@
         <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C237" t="s">
         <v>526</v>
@@ -6414,10 +6415,10 @@
         <v>385</v>
       </c>
       <c r="C240" t="s">
-        <v>529</v>
+        <v>795</v>
       </c>
       <c r="D240" t="s">
-        <v>529</v>
+        <v>795</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -6428,10 +6429,10 @@
         <v>385</v>
       </c>
       <c r="C241" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D241" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -6442,10 +6443,10 @@
         <v>385</v>
       </c>
       <c r="C242" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D242" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -6456,10 +6457,10 @@
         <v>385</v>
       </c>
       <c r="C243" t="s">
-        <v>799</v>
+        <v>529</v>
       </c>
       <c r="D243" t="s">
-        <v>799</v>
+        <v>529</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -6481,7 +6482,7 @@
         <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C245" t="s">
         <v>531</v>
@@ -6495,7 +6496,7 @@
         <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C246" t="s">
         <v>532</v>
@@ -6551,7 +6552,7 @@
         <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C250" t="s">
         <v>536</v>
@@ -6565,7 +6566,7 @@
         <v>251</v>
       </c>
       <c r="B251" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C251" t="s">
         <v>537</v>
@@ -6610,10 +6611,10 @@
         <v>385</v>
       </c>
       <c r="C254" t="s">
-        <v>540</v>
+        <v>857</v>
       </c>
       <c r="D254" t="s">
-        <v>540</v>
+        <v>857</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -6624,10 +6625,10 @@
         <v>385</v>
       </c>
       <c r="C255" t="s">
-        <v>800</v>
+        <v>858</v>
       </c>
       <c r="D255" t="s">
-        <v>800</v>
+        <v>858</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -6638,10 +6639,10 @@
         <v>385</v>
       </c>
       <c r="C256" t="s">
-        <v>801</v>
+        <v>859</v>
       </c>
       <c r="D256" t="s">
-        <v>801</v>
+        <v>859</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -6652,10 +6653,10 @@
         <v>385</v>
       </c>
       <c r="C257" t="s">
-        <v>802</v>
+        <v>860</v>
       </c>
       <c r="D257" t="s">
-        <v>802</v>
+        <v>860</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -6666,10 +6667,10 @@
         <v>385</v>
       </c>
       <c r="C258" t="s">
-        <v>803</v>
+        <v>861</v>
       </c>
       <c r="D258" t="s">
-        <v>803</v>
+        <v>861</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -6680,10 +6681,10 @@
         <v>385</v>
       </c>
       <c r="C259" t="s">
-        <v>804</v>
+        <v>862</v>
       </c>
       <c r="D259" t="s">
-        <v>804</v>
+        <v>862</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -6694,10 +6695,10 @@
         <v>385</v>
       </c>
       <c r="C260" t="s">
-        <v>805</v>
+        <v>863</v>
       </c>
       <c r="D260" t="s">
-        <v>805</v>
+        <v>863</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -6708,10 +6709,10 @@
         <v>385</v>
       </c>
       <c r="C261" t="s">
-        <v>806</v>
+        <v>864</v>
       </c>
       <c r="D261" t="s">
-        <v>806</v>
+        <v>864</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -6722,10 +6723,10 @@
         <v>385</v>
       </c>
       <c r="C262" t="s">
-        <v>807</v>
+        <v>540</v>
       </c>
       <c r="D262" t="s">
-        <v>807</v>
+        <v>540</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -6736,10 +6737,10 @@
         <v>385</v>
       </c>
       <c r="C263" t="s">
-        <v>541</v>
+        <v>390</v>
       </c>
       <c r="D263" t="s">
-        <v>541</v>
+        <v>390</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -6747,13 +6748,13 @@
         <v>264</v>
       </c>
       <c r="B264" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C264" t="s">
-        <v>390</v>
+        <v>541</v>
       </c>
       <c r="D264" t="s">
-        <v>390</v>
+        <v>541</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -6761,7 +6762,7 @@
         <v>265</v>
       </c>
       <c r="B265" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C265" t="s">
         <v>542</v>
@@ -6775,7 +6776,7 @@
         <v>266</v>
       </c>
       <c r="B266" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C266" t="s">
         <v>543</v>
@@ -6803,13 +6804,13 @@
         <v>268</v>
       </c>
       <c r="B268" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C268" t="s">
-        <v>545</v>
+        <v>798</v>
       </c>
       <c r="D268" t="s">
-        <v>545</v>
+        <v>798</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -6820,10 +6821,10 @@
         <v>385</v>
       </c>
       <c r="C269" t="s">
-        <v>808</v>
+        <v>545</v>
       </c>
       <c r="D269" t="s">
-        <v>808</v>
+        <v>545</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -6831,13 +6832,13 @@
         <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C270" t="s">
-        <v>546</v>
+        <v>799</v>
       </c>
       <c r="D270" t="s">
-        <v>546</v>
+        <v>799</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -6845,13 +6846,13 @@
         <v>271</v>
       </c>
       <c r="B271" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C271" t="s">
-        <v>809</v>
+        <v>546</v>
       </c>
       <c r="D271" t="s">
-        <v>809</v>
+        <v>546</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -6887,7 +6888,7 @@
         <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C274" t="s">
         <v>549</v>
@@ -6901,7 +6902,7 @@
         <v>275</v>
       </c>
       <c r="B275" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C275" t="s">
         <v>550</v>
@@ -6943,7 +6944,7 @@
         <v>278</v>
       </c>
       <c r="B278" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C278" t="s">
         <v>553</v>
@@ -6957,7 +6958,7 @@
         <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C279" t="s">
         <v>554</v>
@@ -6985,7 +6986,7 @@
         <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C281" t="s">
         <v>556</v>
@@ -6999,7 +7000,7 @@
         <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C282" t="s">
         <v>557</v>
@@ -7013,7 +7014,7 @@
         <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C283" t="s">
         <v>558</v>
@@ -7027,7 +7028,7 @@
         <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C284" t="s">
         <v>559</v>
@@ -7041,7 +7042,7 @@
         <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C285" t="s">
         <v>560</v>
@@ -7069,7 +7070,7 @@
         <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C287" t="s">
         <v>562</v>
@@ -7097,7 +7098,7 @@
         <v>289</v>
       </c>
       <c r="B289" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C289" t="s">
         <v>564</v>
@@ -7125,7 +7126,7 @@
         <v>291</v>
       </c>
       <c r="B291" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C291" t="s">
         <v>566</v>
@@ -7139,7 +7140,7 @@
         <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C292" t="s">
         <v>567</v>
@@ -7153,7 +7154,7 @@
         <v>293</v>
       </c>
       <c r="B293" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C293" t="s">
         <v>568</v>
@@ -7167,7 +7168,7 @@
         <v>294</v>
       </c>
       <c r="B294" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C294" t="s">
         <v>569</v>
@@ -7181,7 +7182,7 @@
         <v>295</v>
       </c>
       <c r="B295" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C295" t="s">
         <v>570</v>
@@ -7195,7 +7196,7 @@
         <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C296" t="s">
         <v>571</v>
@@ -7223,7 +7224,7 @@
         <v>298</v>
       </c>
       <c r="B298" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C298" t="s">
         <v>573</v>
@@ -7251,7 +7252,7 @@
         <v>300</v>
       </c>
       <c r="B300" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C300" t="s">
         <v>575</v>
@@ -7265,7 +7266,7 @@
         <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C301" t="s">
         <v>576</v>
@@ -7293,7 +7294,7 @@
         <v>303</v>
       </c>
       <c r="B303" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C303" t="s">
         <v>578</v>
@@ -7321,7 +7322,7 @@
         <v>305</v>
       </c>
       <c r="B305" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C305" t="s">
         <v>580</v>
@@ -7349,7 +7350,7 @@
         <v>307</v>
       </c>
       <c r="B307" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C307" t="s">
         <v>582</v>
@@ -7377,7 +7378,7 @@
         <v>309</v>
       </c>
       <c r="B309" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C309" t="s">
         <v>584</v>
@@ -7405,7 +7406,7 @@
         <v>311</v>
       </c>
       <c r="B311" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C311" t="s">
         <v>586</v>
@@ -7419,13 +7420,13 @@
         <v>312</v>
       </c>
       <c r="B312" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C312" t="s">
-        <v>587</v>
+        <v>800</v>
       </c>
       <c r="D312" t="s">
-        <v>587</v>
+        <v>800</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -7436,10 +7437,10 @@
         <v>385</v>
       </c>
       <c r="C313" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="D313" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -7450,10 +7451,10 @@
         <v>385</v>
       </c>
       <c r="C314" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="D314" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -7464,10 +7465,10 @@
         <v>385</v>
       </c>
       <c r="C315" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="D315" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -7475,13 +7476,13 @@
         <v>316</v>
       </c>
       <c r="B316" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C316" t="s">
-        <v>813</v>
+        <v>587</v>
       </c>
       <c r="D316" t="s">
-        <v>813</v>
+        <v>587</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -7489,7 +7490,7 @@
         <v>317</v>
       </c>
       <c r="B317" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C317" t="s">
         <v>588</v>
@@ -7517,7 +7518,7 @@
         <v>319</v>
       </c>
       <c r="B319" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C319" t="s">
         <v>590</v>
@@ -7531,7 +7532,7 @@
         <v>320</v>
       </c>
       <c r="B320" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C320" t="s">
         <v>591</v>
@@ -7559,7 +7560,7 @@
         <v>322</v>
       </c>
       <c r="B322" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C322" t="s">
         <v>593</v>
@@ -7573,7 +7574,7 @@
         <v>323</v>
       </c>
       <c r="B323" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C323" t="s">
         <v>594</v>
@@ -7601,7 +7602,7 @@
         <v>325</v>
       </c>
       <c r="B325" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C325" t="s">
         <v>596</v>
@@ -7629,7 +7630,7 @@
         <v>327</v>
       </c>
       <c r="B327" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C327" t="s">
         <v>598</v>
@@ -7646,10 +7647,10 @@
         <v>385</v>
       </c>
       <c r="C328" t="s">
-        <v>599</v>
+        <v>804</v>
       </c>
       <c r="D328" t="s">
-        <v>599</v>
+        <v>804</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -7657,13 +7658,13 @@
         <v>329</v>
       </c>
       <c r="B329" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C329" t="s">
-        <v>814</v>
+        <v>599</v>
       </c>
       <c r="D329" t="s">
-        <v>814</v>
+        <v>599</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -7671,7 +7672,7 @@
         <v>330</v>
       </c>
       <c r="B330" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C330" t="s">
         <v>600</v>
@@ -7713,7 +7714,7 @@
         <v>333</v>
       </c>
       <c r="B333" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C333" t="s">
         <v>603</v>
@@ -7741,7 +7742,7 @@
         <v>335</v>
       </c>
       <c r="B335" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C335" t="s">
         <v>605</v>
@@ -7755,7 +7756,7 @@
         <v>336</v>
       </c>
       <c r="B336" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C336" t="s">
         <v>606</v>
@@ -7783,7 +7784,7 @@
         <v>338</v>
       </c>
       <c r="B338" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C338" t="s">
         <v>608</v>
@@ -7811,7 +7812,7 @@
         <v>340</v>
       </c>
       <c r="B340" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C340" t="s">
         <v>610</v>
@@ -7825,7 +7826,7 @@
         <v>341</v>
       </c>
       <c r="B341" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C341" t="s">
         <v>611</v>
@@ -7853,7 +7854,7 @@
         <v>343</v>
       </c>
       <c r="B343" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C343" t="s">
         <v>613</v>
@@ -7867,7 +7868,7 @@
         <v>344</v>
       </c>
       <c r="B344" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C344" t="s">
         <v>614</v>
@@ -7895,7 +7896,7 @@
         <v>346</v>
       </c>
       <c r="B346" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C346" t="s">
         <v>616</v>
@@ -7909,7 +7910,7 @@
         <v>347</v>
       </c>
       <c r="B347" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C347" t="s">
         <v>617</v>
@@ -7937,7 +7938,7 @@
         <v>349</v>
       </c>
       <c r="B349" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C349" t="s">
         <v>619</v>
@@ -7965,7 +7966,7 @@
         <v>351</v>
       </c>
       <c r="B351" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C351" t="s">
         <v>621</v>
@@ -7993,7 +7994,7 @@
         <v>353</v>
       </c>
       <c r="B353" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C353" t="s">
         <v>623</v>
@@ -8021,7 +8022,7 @@
         <v>355</v>
       </c>
       <c r="B355" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C355" t="s">
         <v>625</v>
@@ -8049,7 +8050,7 @@
         <v>357</v>
       </c>
       <c r="B357" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C357" t="s">
         <v>627</v>
@@ -8063,7 +8064,7 @@
         <v>358</v>
       </c>
       <c r="B358" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C358" t="s">
         <v>628</v>
@@ -8091,7 +8092,7 @@
         <v>360</v>
       </c>
       <c r="B360" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C360" t="s">
         <v>630</v>
@@ -8105,7 +8106,7 @@
         <v>361</v>
       </c>
       <c r="B361" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C361" t="s">
         <v>631</v>
@@ -8147,7 +8148,7 @@
         <v>364</v>
       </c>
       <c r="B364" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C364" t="s">
         <v>634</v>
@@ -8175,7 +8176,7 @@
         <v>366</v>
       </c>
       <c r="B366" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C366" t="s">
         <v>636</v>
@@ -8189,7 +8190,7 @@
         <v>367</v>
       </c>
       <c r="B367" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C367" t="s">
         <v>637</v>
@@ -8203,7 +8204,7 @@
         <v>368</v>
       </c>
       <c r="B368" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C368" t="s">
         <v>638</v>
@@ -8231,7 +8232,7 @@
         <v>370</v>
       </c>
       <c r="B370" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C370" t="s">
         <v>640</v>
@@ -8259,7 +8260,7 @@
         <v>372</v>
       </c>
       <c r="B372" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C372" t="s">
         <v>642</v>
@@ -8273,7 +8274,7 @@
         <v>373</v>
       </c>
       <c r="B373" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C373" t="s">
         <v>643</v>
@@ -8287,13 +8288,13 @@
         <v>374</v>
       </c>
       <c r="B374" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C374" t="s">
-        <v>644</v>
+        <v>805</v>
       </c>
       <c r="D374" t="s">
-        <v>644</v>
+        <v>805</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -8304,10 +8305,10 @@
         <v>385</v>
       </c>
       <c r="C375" t="s">
-        <v>815</v>
+        <v>639</v>
       </c>
       <c r="D375" t="s">
-        <v>815</v>
+        <v>639</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -8315,13 +8316,13 @@
         <v>376</v>
       </c>
       <c r="B376" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C376" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D376" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -8343,7 +8344,7 @@
         <v>378</v>
       </c>
       <c r="B378" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C378" t="s">
         <v>646</v>
@@ -8371,7 +8372,7 @@
         <v>380</v>
       </c>
       <c r="B380" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C380" t="s">
         <v>648</v>
@@ -8385,7 +8386,7 @@
         <v>381</v>
       </c>
       <c r="B381" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C381" t="s">
         <v>649</v>
@@ -8413,7 +8414,7 @@
         <v>383</v>
       </c>
       <c r="B383" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C383" t="s">
         <v>651</v>
@@ -8438,10 +8439,10 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="B385" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C385" t="s">
         <v>653</v>
@@ -8452,38 +8453,38 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="B386" t="s">
         <v>385</v>
       </c>
       <c r="C386" t="s">
-        <v>654</v>
+        <v>806</v>
       </c>
       <c r="D386" t="s">
-        <v>654</v>
+        <v>806</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="B387" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C387" t="s">
-        <v>816</v>
+        <v>654</v>
       </c>
       <c r="D387" t="s">
-        <v>816</v>
+        <v>654</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="B388" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C388" t="s">
         <v>655</v>
@@ -8494,7 +8495,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="B389" t="s">
         <v>385</v>
@@ -8508,7 +8509,7 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="B390" t="s">
         <v>385</v>
@@ -8522,10 +8523,10 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="B391" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C391" t="s">
         <v>658</v>
@@ -8536,7 +8537,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="B392" t="s">
         <v>386</v>
@@ -8550,10 +8551,10 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="B393" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C393" t="s">
         <v>660</v>
@@ -8564,7 +8565,7 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="B394" t="s">
         <v>385</v>
@@ -8578,10 +8579,10 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="B395" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C395" t="s">
         <v>662</v>
@@ -8592,10 +8593,10 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="B396" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C396" t="s">
         <v>663</v>
@@ -8606,7 +8607,7 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="B397" t="s">
         <v>385</v>
@@ -8620,10 +8621,10 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="B398" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C398" t="s">
         <v>665</v>
@@ -8634,7 +8635,7 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="B399" t="s">
         <v>386</v>
@@ -8648,10 +8649,10 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="B400" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C400" t="s">
         <v>667</v>
@@ -8662,7 +8663,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="B401" t="s">
         <v>385</v>
@@ -8676,10 +8677,10 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="B402" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C402" t="s">
         <v>669</v>
@@ -8690,10 +8691,10 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="B403" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C403" t="s">
         <v>670</v>
@@ -8704,7 +8705,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="B404" t="s">
         <v>385</v>
@@ -8718,7 +8719,7 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="B405" t="s">
         <v>385</v>
@@ -8732,10 +8733,10 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="B406" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C406" t="s">
         <v>673</v>
@@ -8746,10 +8747,10 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="B407" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C407" t="s">
         <v>674</v>
@@ -8760,7 +8761,7 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="B408" t="s">
         <v>385</v>
@@ -8774,10 +8775,10 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="B409" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C409" t="s">
         <v>676</v>
@@ -8788,10 +8789,10 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="B410" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C410" t="s">
         <v>677</v>
@@ -8802,7 +8803,7 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="B411" t="s">
         <v>385</v>
@@ -8816,10 +8817,10 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="B412" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C412" t="s">
         <v>679</v>
@@ -8830,10 +8831,10 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B413" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C413" t="s">
         <v>680</v>
@@ -8844,7 +8845,7 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="B414" t="s">
         <v>385</v>
@@ -8858,10 +8859,10 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="B415" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C415" t="s">
         <v>682</v>
@@ -8872,7 +8873,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="B416" t="s">
         <v>386</v>
@@ -8886,10 +8887,10 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="B417" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C417" t="s">
         <v>684</v>
@@ -8900,7 +8901,7 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="B418" t="s">
         <v>385</v>
@@ -8914,10 +8915,10 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="B419" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C419" t="s">
         <v>686</v>
@@ -8928,10 +8929,10 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="B420" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C420" t="s">
         <v>687</v>
@@ -8942,7 +8943,7 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="B421" t="s">
         <v>385</v>
@@ -8956,7 +8957,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="B422" t="s">
         <v>385</v>
@@ -8970,10 +8971,10 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="B423" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C423" t="s">
         <v>690</v>
@@ -8984,10 +8985,10 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="B424" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C424" t="s">
         <v>691</v>
@@ -8998,7 +8999,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="B425" t="s">
         <v>385</v>
@@ -9012,10 +9013,10 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="B426" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C426" t="s">
         <v>693</v>
@@ -9026,10 +9027,10 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="B427" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C427" t="s">
         <v>694</v>
@@ -9040,35 +9041,35 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="B428" t="s">
         <v>385</v>
       </c>
       <c r="C428" t="s">
-        <v>695</v>
+        <v>807</v>
       </c>
       <c r="D428" t="s">
-        <v>695</v>
+        <v>807</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="B429" t="s">
         <v>385</v>
       </c>
       <c r="C429" t="s">
-        <v>817</v>
+        <v>695</v>
       </c>
       <c r="D429" t="s">
-        <v>817</v>
+        <v>695</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="B430" t="s">
         <v>385</v>
@@ -9078,20 +9079,6 @@
       </c>
       <c r="D430" t="s">
         <v>696</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
-        <v>864</v>
-      </c>
-      <c r="B431" t="s">
-        <v>385</v>
-      </c>
-      <c r="C431" t="s">
-        <v>697</v>
-      </c>
-      <c r="D431" t="s">
-        <v>697</v>
       </c>
     </row>
   </sheetData>

--- a/1_PDF_Manual/instruction_translation.xlsx
+++ b/1_PDF_Manual/instruction_translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\chemodanov_dn\3_Insctuctions_repo\Zeon_bot_manual\1_PDF_Manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BD67AC-7470-4066-A4ED-F8B8320979A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B8F419-DD85-4186-B144-99D22F0B3D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="868">
   <si>
     <t>ID</t>
   </si>
@@ -2671,6 +2671,16 @@
   </si>
   <si>
     <t xml:space="preserve">  * При выборе обоих защитных сценариев приоритет отдается щиту \ParamLink{Использование щита}{war_shield_activate}{Разрешение на применение доступных (бесплатных) щитов}.</t>
+  </si>
+  <si>
+    <t>* Поддержка любого количества персонажей в рамках одного игрового аккаунта.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Далее необходимо выбрать персонажа для которого вы будете задавать настройки.</t>
+  </si>
+  <si>
+    <t>* Вам не нужно устанавливать дополнительный софт!</t>
   </si>
 </sst>
 </file>
@@ -2729,10 +2739,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3041,7 +3054,7 @@
   <dimension ref="A1:R430"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3181,7 +3194,7 @@
         <v>385</v>
       </c>
       <c r="C6" t="s">
-        <v>712</v>
+        <v>867</v>
       </c>
       <c r="D6" t="s">
         <v>712</v>
@@ -3282,7 +3295,7 @@
         <v>719</v>
       </c>
       <c r="D13" t="s">
-        <v>719</v>
+        <v>865</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -4347,15 +4360,15 @@
         <v>766</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
       <c r="B92" t="s">
         <v>385</v>
       </c>
-      <c r="C92" t="s">
-        <v>767</v>
+      <c r="C92" s="2" t="s">
+        <v>866</v>
       </c>
       <c r="D92" t="s">
         <v>767</v>
